--- a/丽莎花园西餐_新.xlsx
+++ b/丽莎花园西餐_新.xlsx
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM37"/>
+  <dimension ref="A1:AM48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
@@ -4965,8 +4965,6 @@
           <t>1167.00</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr">
         <is>
           <t>1167</t>
@@ -5038,6 +5036,1790 @@
         </is>
       </c>
       <c r="AL37" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>1167.00</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD38" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG38" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL38" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>1167.00</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD39" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG39" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL39" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>1167.00</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD40" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG40" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL40" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>1167.00</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG41" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL41" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>1167.00</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD42" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG42" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL42" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>1167.00</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD43" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG43" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL43" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>1167.00</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD44" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG44" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL44" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>1754.00</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>1754</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD45" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG45" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL45" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>1754.00</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>1754</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD46" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG46" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL46" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>1754.00</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>1754</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD47" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG47" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL47" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>1754.00</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>1754</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD48" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG48" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL48" t="inlineStr">
         <is>
           <t>100名以外</t>
         </is>

--- a/丽莎花园西餐_新.xlsx
+++ b/丽莎花园西餐_新.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1680" yWindow="9720" windowWidth="28560" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="5160" windowWidth="28560" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="麗莎花园西餐厅（旧物仓店）" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <name val="宋体"/>
       <family val="2"/>
@@ -37,13 +37,6 @@
       <family val="4"/>
       <color rgb="FFFF0000"/>
       <sz val="12"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="4"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -101,7 +94,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -469,13 +462,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM48"/>
+  <dimension ref="A1:AM97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="D64" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col width="12.5" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1">
       <c r="A1" t="inlineStr">
@@ -668,6 +664,11 @@
           <t>点评全美食热门榜（全城不分品种总排位）</t>
         </is>
       </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>类目</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6747,8 +6748,6 @@
           <t>1754.00</t>
         </is>
       </c>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr">
         <is>
           <t>1754</t>
@@ -6822,6 +6821,8187 @@
       <c r="AL48" t="inlineStr">
         <is>
           <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>1754.00</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>1754</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD49" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG49" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL49" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>1754.00</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>1754</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD50" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG50" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL50" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>1754.00</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>1754</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD51" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG51" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL51" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>1754.00</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>1754</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD52" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG52" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL52" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>1754.00</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>1754</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD53" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG53" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL53" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>1108.00</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD54" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG54" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL54" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>1108.00</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD55" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG55" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL55" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>1108.00</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD56" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG56" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL56" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>1108.00</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD57" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG57" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL57" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>1108.00</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD58" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG58" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL58" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>1108.00</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD59" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG59" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL59" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>1108.00</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD60" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG60" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL60" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>1108.00</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA61" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD61" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG61" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL61" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>1108.00</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD62" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG62" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL62" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>1108.00</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA63" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD63" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG63" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL63" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>1108.00</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA64" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC64" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD64" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG64" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL64" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>1108.00</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA65" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC65" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD65" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG65" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL65" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>1108.00</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA66" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC66" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD66" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG66" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL66" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>1108.00</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA67" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC67" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD67" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG67" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL67" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>1108.00</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA68" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC68" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD68" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG68" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL68" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>1108.00</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA69" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC69" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD69" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG69" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL69" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>1108.00</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA70" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC70" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD70" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG70" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL70" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>1108.00</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA71" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC71" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD71" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG71" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL71" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>1108.00</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA72" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC72" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD72" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG72" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL72" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>1108.00</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA73" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC73" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD73" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG73" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL73" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2022-03-22</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>2129.00</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>1616</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA74" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC74" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD74" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG74" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL74" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2022-03-22</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>2129.00</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>1616</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA75" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC75" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD75" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG75" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL75" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2022-03-25</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>2210.80</t>
+        </is>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>2210.80</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>391</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA76" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC76" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD76" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG76" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL76" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM76" t="inlineStr">
+        <is>
+          <t>西餐</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2022-03-25</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>2210.80</t>
+        </is>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>2210.80</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>391</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA77" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC77" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD77" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG77" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL77" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM77" t="inlineStr">
+        <is>
+          <t>西餐</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2022-03-25</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>2210.80</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>2210.80</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>391</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA78" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC78" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD78" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG78" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL78" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM78" t="inlineStr">
+        <is>
+          <t>西餐</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2022-03-25</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>2210.80</t>
+        </is>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>2210.80</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>391</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA79" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC79" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD79" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG79" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL79" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM79" t="inlineStr">
+        <is>
+          <t>西餐</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2022-03-29</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA80" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB80" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC80" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD80" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG80" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL80" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM80" t="inlineStr">
+        <is>
+          <t>西餐</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2022-03-29</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA81" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB81" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC81" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD81" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG81" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL81" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM81" t="inlineStr">
+        <is>
+          <t>西餐</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2022-03-30</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA82" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB82" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AC82" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD82" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG82" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL82" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM82" t="inlineStr">
+        <is>
+          <t>西餐</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2022-03-30</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA83" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB83" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AC83" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD83" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG83" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL83" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM83" t="inlineStr">
+        <is>
+          <t>西餐</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2022-03-30</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA84" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB84" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AC84" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD84" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG84" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL84" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM84" t="inlineStr">
+        <is>
+          <t>西餐</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2022-03-30</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA85" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB85" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AC85" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD85" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG85" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL85" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM85" t="inlineStr">
+        <is>
+          <t>西餐</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2022-04-01</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA86" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AB86" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AC86" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD86" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AE86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG86" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL86" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM86" t="inlineStr">
+        <is>
+          <t>西餐</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2022-04-01</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA87" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AB87" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AC87" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD87" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AE87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG87" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL87" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM87" t="inlineStr">
+        <is>
+          <t>西餐</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2022-04-01</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA88" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AB88" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AC88" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD88" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AE88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG88" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL88" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM88" t="inlineStr">
+        <is>
+          <t>西餐</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2022-04-01</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA89" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AB89" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AC89" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD89" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AE89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG89" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL89" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM89" t="inlineStr">
+        <is>
+          <t>西餐</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2022-04-06</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA90" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB90" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC90" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD90" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG90" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL90" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM90" t="inlineStr">
+        <is>
+          <t>西餐</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2022-04-06</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA91" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB91" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC91" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD91" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG91" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL91" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM91" t="inlineStr">
+        <is>
+          <t>西餐</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2022-04-06</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA92" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB92" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC92" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD92" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG92" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL92" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM92" t="inlineStr">
+        <is>
+          <t>西餐</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2022-04-06</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA93" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB93" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC93" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD93" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG93" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL93" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM93" t="inlineStr">
+        <is>
+          <t>西餐</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2022-04-06</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA94" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB94" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC94" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD94" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG94" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL94" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM94" t="inlineStr">
+        <is>
+          <t>西餐</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2022-04-06</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA95" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB95" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC95" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD95" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG95" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL95" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM95" t="inlineStr">
+        <is>
+          <t>西餐</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2022-04-06</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="W96" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA96" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB96" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC96" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD96" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG96" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL96" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM96" t="inlineStr">
+        <is>
+          <t>西餐</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2022-04-06</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr"/>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA97" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB97" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC97" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AD97" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AE97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG97" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL97" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AM97" t="inlineStr">
+        <is>
+          <t>西餐</t>
         </is>
       </c>
     </row>
